--- a/dev/reports/files/BASIC_OTT_REPORT_DAILY_04052019.xlsx
+++ b/dev/reports/files/BASIC_OTT_REPORT_DAILY_04052019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Andrey\Desktop\dev\rostel\frontend\dev\reports\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rostel\frontend\dev\reports\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5095A-5048-4B97-BC26-1A6DB75A3916}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2AD07-CF67-4FEC-8A9B-4C63CCDA6274}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="336" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,13 @@
     <t>VODAFONE</t>
   </si>
   <si>
-    <t>KQU sub</t>
-  </si>
-  <si>
     <t>DEUTSCHE TELECOM</t>
   </si>
   <si>
     <t>BASIC_OTT_REPORT_DAILY_04052018</t>
+  </si>
+  <si>
+    <t>KQI sub</t>
   </si>
 </sst>
 </file>
@@ -849,19 +849,19 @@
   <dimension ref="B4:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D8" sqref="D8:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -877,10 +877,10 @@
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -894,7 +894,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="24">
         <v>43589</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.99350000000000005</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1046,9 +1046,9 @@
         <v>0.92689999999999995</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
         <v>3320</v>
@@ -1090,7 +1090,7 @@
         <v>0.91749999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
@@ -1106,7 +1106,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1120,7 +1120,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1134,7 +1134,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
